--- a/Phenoloxidase Activity data/57. HEG 7 (91189).xlsx
+++ b/Phenoloxidase Activity data/57. HEG 7 (91189).xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Data\Phenol oxidase activity\Phenoloxidase Activity data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\inkyi\OneDrive\Desktop\Research\Research\Phenoloxidase Activity data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8964" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="Blank " sheetId="42" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="28">
   <si>
     <t>Sample - Blank</t>
   </si>
@@ -70,15 +70,6 @@
   </si>
   <si>
     <t>B3</t>
-  </si>
-  <si>
-    <t>B4</t>
-  </si>
-  <si>
-    <t>B5</t>
-  </si>
-  <si>
-    <t>B6</t>
   </si>
   <si>
     <t>Sample 91153</t>
@@ -433,11 +424,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235099496"/>
-        <c:axId val="234494216"/>
+        <c:axId val="239932552"/>
+        <c:axId val="239966208"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235099496"/>
+        <c:axId val="239932552"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,12 +485,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234494216"/>
+        <c:crossAx val="239966208"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234494216"/>
+        <c:axId val="239966208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -556,7 +547,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235099496"/>
+        <c:crossAx val="239932552"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -824,11 +815,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235738520"/>
-        <c:axId val="235732640"/>
+        <c:axId val="294312744"/>
+        <c:axId val="294314704"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235738520"/>
+        <c:axId val="294312744"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -885,12 +876,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235732640"/>
+        <c:crossAx val="294314704"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235732640"/>
+        <c:axId val="294314704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -947,7 +938,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235738520"/>
+        <c:crossAx val="294312744"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1215,11 +1206,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235731464"/>
-        <c:axId val="235733816"/>
+        <c:axId val="294313136"/>
+        <c:axId val="294315880"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235731464"/>
+        <c:axId val="294313136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1276,12 +1267,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235733816"/>
+        <c:crossAx val="294315880"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235733816"/>
+        <c:axId val="294315880"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1338,7 +1329,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235731464"/>
+        <c:crossAx val="294313136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1606,11 +1597,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235735776"/>
-        <c:axId val="235738912"/>
+        <c:axId val="294310392"/>
+        <c:axId val="294315488"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235735776"/>
+        <c:axId val="294310392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1667,12 +1658,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235738912"/>
+        <c:crossAx val="294315488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235738912"/>
+        <c:axId val="294315488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1729,7 +1720,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235735776"/>
+        <c:crossAx val="294310392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1793,6 +1784,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -1869,8 +1861,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.42587664041994749"/>
-                  <c:y val="-0.15173155438903471"/>
+                  <c:x val="-0.4539420384951881"/>
+                  <c:y val="0.2482830271216098"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -1997,11 +1989,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235736168"/>
-        <c:axId val="235736560"/>
+        <c:axId val="294313528"/>
+        <c:axId val="294312352"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235736168"/>
+        <c:axId val="294313528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2058,12 +2050,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235736560"/>
+        <c:crossAx val="294312352"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235736560"/>
+        <c:axId val="294312352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2120,7 +2112,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235736168"/>
+        <c:crossAx val="294313528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2184,6 +2176,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2260,8 +2253,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.43698775153105862"/>
-                  <c:y val="-9.2953484981044041E-2"/>
+                  <c:x val="-0.44838648293963257"/>
+                  <c:y val="0.16162037037037033"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2388,11 +2381,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235733032"/>
-        <c:axId val="235733424"/>
+        <c:axId val="294308824"/>
+        <c:axId val="294313920"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235733032"/>
+        <c:axId val="294308824"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2449,12 +2442,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235733424"/>
+        <c:crossAx val="294313920"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235733424"/>
+        <c:axId val="294313920"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2511,7 +2504,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235733032"/>
+        <c:crossAx val="294308824"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -2652,8 +2645,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="-0.44809886264216975"/>
-                  <c:y val="-0.10679316127150773"/>
+                  <c:x val="-0.43171981627296591"/>
+                  <c:y val="0.15972586759988336"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -2780,11 +2773,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235737344"/>
-        <c:axId val="235738128"/>
+        <c:axId val="294311176"/>
+        <c:axId val="294314312"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235737344"/>
+        <c:axId val="294311176"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2841,12 +2834,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235738128"/>
+        <c:crossAx val="294314312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235738128"/>
+        <c:axId val="294314312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2903,790 +2896,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235737344"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:layout/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.43576552930883639"/>
-                  <c:y val="-0.13694808982210557"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2'!$N$68:$N$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2'!$O$68:$O$78</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.97850000858306885</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.9725000262260437</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.97500002384185791</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.96310001611709595</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.95899999141693115</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.95200002193450928</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.9496999979019165</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.9496999979019165</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.94739997386932373</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.94690001010894775</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.94290000200271606</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="286694408"/>
-        <c:axId val="286686960"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="286694408"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="286686960"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="286686960"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="286694408"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="en-US"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="en-US"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:scatterChart>
-        <c:scatterStyle val="lineMarker"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:spPr>
-            <a:ln w="19050" cap="rnd">
-              <a:noFill/>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="circle"/>
-            <c:size val="5"/>
-            <c:spPr>
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:ln w="9525">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-          </c:marker>
-          <c:trendline>
-            <c:spPr>
-              <a:ln w="19050" cap="rnd">
-                <a:solidFill>
-                  <a:schemeClr val="accent1"/>
-                </a:solidFill>
-                <a:prstDash val="sysDot"/>
-              </a:ln>
-              <a:effectLst/>
-            </c:spPr>
-            <c:trendlineType val="linear"/>
-            <c:dispRSqr val="1"/>
-            <c:dispEq val="1"/>
-            <c:trendlineLbl>
-              <c:layout>
-                <c:manualLayout>
-                  <c:x val="-0.45243219597550305"/>
-                  <c:y val="-0.11985491396908719"/>
-                </c:manualLayout>
-              </c:layout>
-              <c:numFmt formatCode="General" sourceLinked="0"/>
-              <c:spPr>
-                <a:noFill/>
-                <a:ln>
-                  <a:noFill/>
-                </a:ln>
-                <a:effectLst/>
-              </c:spPr>
-              <c:txPr>
-                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-                <a:lstStyle/>
-                <a:p>
-                  <a:pPr>
-                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                      <a:solidFill>
-                        <a:schemeClr val="tx1">
-                          <a:lumMod val="65000"/>
-                          <a:lumOff val="35000"/>
-                        </a:schemeClr>
-                      </a:solidFill>
-                      <a:latin typeface="+mn-lt"/>
-                      <a:ea typeface="+mn-ea"/>
-                      <a:cs typeface="+mn-cs"/>
-                    </a:defRPr>
-                  </a:pPr>
-                  <a:endParaRPr lang="en-US"/>
-                </a:p>
-              </c:txPr>
-            </c:trendlineLbl>
-          </c:trendline>
-          <c:xVal>
-            <c:numRef>
-              <c:f>'2'!$N$85:$N$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>30</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:xVal>
-          <c:yVal>
-            <c:numRef>
-              <c:f>'2'!$O$85:$O$95</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="11"/>
-                <c:pt idx="0">
-                  <c:v>0.95270001888275146</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>0.94889998435974121</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>0.94220000505447388</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>0.93870002031326294</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>0.93459999561309814</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>0.93300002813339233</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>0.92790001630783081</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>0.92900002002716064</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>0.92570000886917114</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0.92610001564025879</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>0.92339998483657837</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:yVal>
-          <c:smooth val="0"/>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:axId val="286692448"/>
-        <c:axId val="286689704"/>
-      </c:scatterChart>
-      <c:valAx>
-        <c:axId val="286692448"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="286689704"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="midCat"/>
-      </c:valAx>
-      <c:valAx>
-        <c:axId val="286689704"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="25000"/>
-                <a:lumOff val="75000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="en-US"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="286692448"/>
+        <c:crossAx val="294311176"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -3942,11 +3152,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234934512"/>
-        <c:axId val="234934896"/>
+        <c:axId val="239778832"/>
+        <c:axId val="239779216"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234934512"/>
+        <c:axId val="239778832"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4003,12 +3213,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234934896"/>
+        <c:crossAx val="239779216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234934896"/>
+        <c:axId val="239779216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4065,7 +3275,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234934512"/>
+        <c:crossAx val="239778832"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4321,11 +3531,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235025040"/>
-        <c:axId val="235025424"/>
+        <c:axId val="239790232"/>
+        <c:axId val="239900304"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235025040"/>
+        <c:axId val="239790232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4382,12 +3592,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235025424"/>
+        <c:crossAx val="239900304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235025424"/>
+        <c:axId val="239900304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4444,7 +3654,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235025040"/>
+        <c:crossAx val="239790232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4508,6 +3718,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4700,11 +3911,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235031584"/>
-        <c:axId val="235031968"/>
+        <c:axId val="239927872"/>
+        <c:axId val="294194056"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235031584"/>
+        <c:axId val="239927872"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4761,12 +3972,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235031968"/>
+        <c:crossAx val="294194056"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235031968"/>
+        <c:axId val="294194056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4823,7 +4034,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235031584"/>
+        <c:crossAx val="239927872"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4887,6 +4098,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5079,11 +4291,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235028304"/>
-        <c:axId val="234630296"/>
+        <c:axId val="239460392"/>
+        <c:axId val="239460776"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235028304"/>
+        <c:axId val="239460392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5140,12 +4352,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234630296"/>
+        <c:crossAx val="239460776"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234630296"/>
+        <c:axId val="239460776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5202,7 +4414,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235028304"/>
+        <c:crossAx val="239460392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5266,6 +4478,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5458,11 +4671,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234642056"/>
-        <c:axId val="234640488"/>
+        <c:axId val="239136976"/>
+        <c:axId val="239135408"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234642056"/>
+        <c:axId val="239136976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5519,12 +4732,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234640488"/>
+        <c:crossAx val="239135408"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234640488"/>
+        <c:axId val="239135408"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5581,7 +4794,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234642056"/>
+        <c:crossAx val="239136976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -5645,6 +4858,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5837,11 +5051,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234640096"/>
-        <c:axId val="234640880"/>
+        <c:axId val="239135800"/>
+        <c:axId val="239133448"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234640096"/>
+        <c:axId val="239135800"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5898,12 +5112,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234640880"/>
+        <c:crossAx val="239133448"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234640880"/>
+        <c:axId val="239133448"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5960,7 +5174,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234640096"/>
+        <c:crossAx val="239135800"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6024,6 +5238,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6216,11 +5431,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="234639312"/>
-        <c:axId val="234642448"/>
+        <c:axId val="239133840"/>
+        <c:axId val="239134624"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="234639312"/>
+        <c:axId val="239133840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6277,12 +5492,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234642448"/>
+        <c:crossAx val="239134624"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="234642448"/>
+        <c:axId val="239134624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6339,7 +5554,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="234639312"/>
+        <c:crossAx val="239133840"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -6403,6 +5618,7 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -6595,11 +5811,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="235731856"/>
-        <c:axId val="235732248"/>
+        <c:axId val="294310000"/>
+        <c:axId val="294310784"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="235731856"/>
+        <c:axId val="294310000"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6656,12 +5872,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235732248"/>
+        <c:crossAx val="294310784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="235732248"/>
+        <c:axId val="294310784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6718,7 +5934,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="235731856"/>
+        <c:crossAx val="294310000"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -7008,86 +6224,6 @@
 </file>
 
 <file path=xl/charts/colors15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
-<file path=xl/charts/colors17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -10544,1038 +9680,6 @@
 </file>
 
 <file path=xl/charts/style15.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style16.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="75000"/>
-          <a:lumOff val="25000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="50000"/>
-            <a:lumOff val="50000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style17.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -16716,70 +14820,6 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>594360</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>289560</xdr:colOff>
-      <xdr:row>78</xdr:row>
-      <xdr:rowOff>175260</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="6" name="Chart 5"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>80</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>304800</xdr:colOff>
-      <xdr:row>95</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="7" name="Chart 6"/>
-        <xdr:cNvGraphicFramePr>
-          <a:graphicFrameLocks/>
-        </xdr:cNvGraphicFramePr>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -17059,7 +15099,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B1" s="1">
         <v>1.3798999786376953</v>
@@ -17093,7 +15133,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B2" s="1">
         <v>1.3476999998092651</v>
@@ -17127,7 +15167,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="B3" s="1">
         <v>1.3156000375747681</v>
@@ -17379,8 +15419,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:O95"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView topLeftCell="A71" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -17391,7 +15431,7 @@
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N3" s="2">
         <v>91153</v>
@@ -17399,7 +15439,7 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B4" s="1">
         <v>1.2541999816894531</v>
@@ -17438,7 +15478,7 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B5" s="1">
         <v>1.3476999998092651</v>
@@ -17592,7 +15632,7 @@
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="B19" s="1">
         <v>1.2404999732971191</v>
@@ -17631,7 +15671,7 @@
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B20" s="1">
         <v>1.3476999998092651</v>
@@ -17782,7 +15822,7 @@
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="B35" s="1">
         <v>1.4306999444961548</v>
@@ -17821,7 +15861,7 @@
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B36" s="1">
         <v>1.3476999998092651</v>
@@ -17973,7 +16013,7 @@
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B51" s="1">
         <v>1.2226999998092651</v>
@@ -18012,7 +16052,7 @@
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B52" s="1">
         <v>1.3476999998092651</v>
@@ -18163,7 +16203,7 @@
     </row>
     <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="B68" s="1">
         <v>1.163599967956543</v>
@@ -18202,7 +16242,7 @@
     </row>
     <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B69" s="1">
         <v>1.3476999998092651</v>
@@ -18353,7 +16393,7 @@
     </row>
     <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="B85" s="1">
         <v>1.3832999467849731</v>
@@ -18392,7 +16432,7 @@
     </row>
     <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="B86" s="1">
         <v>1.3476999998092651</v>
@@ -18563,7 +16603,7 @@
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B1" s="1">
         <v>1.3552000522613525</v>
@@ -18601,7 +16641,7 @@
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="B2" s="1">
         <v>1.4169000387191772</v>
@@ -18639,7 +16679,7 @@
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="B3" s="1">
         <v>1.3068000078201294</v>
@@ -18939,10 +16979,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A3:O95"/>
+  <dimension ref="A3:O45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35:L35"/>
+    <sheetView topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="K14" sqref="K14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -18953,7 +16993,7 @@
   <sheetData>
     <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="N3" s="2">
         <v>91153</v>
@@ -19079,42 +17119,6 @@
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" s="1">
-        <v>1.2389999628067017</v>
-      </c>
-      <c r="C8" s="1">
-        <v>1.2554999589920044</v>
-      </c>
-      <c r="D8" s="1">
-        <v>1.2740999460220337</v>
-      </c>
-      <c r="E8" s="1">
-        <v>1.3007999658584595</v>
-      </c>
-      <c r="F8" s="1">
-        <v>1.3221999406814575</v>
-      </c>
-      <c r="G8" s="1">
-        <v>1.3415000438690186</v>
-      </c>
-      <c r="H8" s="1">
-        <v>1.3633999824523926</v>
-      </c>
-      <c r="I8" s="1">
-        <v>1.3732999563217163</v>
-      </c>
-      <c r="J8" s="1">
-        <v>1.3855999708175659</v>
-      </c>
-      <c r="K8" s="1">
-        <v>1.3854999542236328</v>
-      </c>
-      <c r="L8" s="1">
-        <v>1.3955999612808228</v>
-      </c>
       <c r="N8" s="2">
         <v>12</v>
       </c>
@@ -19124,42 +17128,6 @@
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B9" s="1">
-        <v>1.4059000015258789</v>
-      </c>
-      <c r="C9" s="1">
-        <v>1.4186999797821045</v>
-      </c>
-      <c r="D9" s="1">
-        <v>1.4414999485015869</v>
-      </c>
-      <c r="E9" s="1">
-        <v>1.4625999927520752</v>
-      </c>
-      <c r="F9" s="1">
-        <v>1.4768999814987183</v>
-      </c>
-      <c r="G9" s="1">
-        <v>1.4937000274658203</v>
-      </c>
-      <c r="H9" s="1">
-        <v>1.5068999528884888</v>
-      </c>
-      <c r="I9" s="1">
-        <v>1.5231000185012817</v>
-      </c>
-      <c r="J9" s="1">
-        <v>1.5360000133514404</v>
-      </c>
-      <c r="K9" s="1">
-        <v>1.5461000204086304</v>
-      </c>
-      <c r="L9" s="1">
-        <v>1.55840003490448</v>
-      </c>
       <c r="N9" s="2">
         <v>15</v>
       </c>
@@ -19169,42 +17137,6 @@
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="B10" s="1">
-        <v>1.3803000450134277</v>
-      </c>
-      <c r="C10" s="1">
-        <v>1.3911999464035034</v>
-      </c>
-      <c r="D10" s="1">
-        <v>1.3983999490737915</v>
-      </c>
-      <c r="E10" s="1">
-        <v>1.4062000513076782</v>
-      </c>
-      <c r="F10" s="1">
-        <v>1.4199999570846558</v>
-      </c>
-      <c r="G10" s="1">
-        <v>1.4426000118255615</v>
-      </c>
-      <c r="H10" s="1">
-        <v>1.4613000154495239</v>
-      </c>
-      <c r="I10" s="1">
-        <v>1.4795999526977539</v>
-      </c>
-      <c r="J10" s="1">
-        <v>1.4981000423431396</v>
-      </c>
-      <c r="K10" s="1">
-        <v>1.5099999904632568</v>
-      </c>
-      <c r="L10" s="1">
-        <v>1.5360000133514404</v>
-      </c>
       <c r="N10" s="2">
         <v>18</v>
       </c>
@@ -19615,552 +17547,6 @@
       <c r="O45" s="2">
         <f>L37</f>
         <v>1.5360000133514404</v>
-      </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A51" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B51" s="1">
-        <v>0.83060002326965332</v>
-      </c>
-      <c r="C51" s="1">
-        <v>0.83389997482299805</v>
-      </c>
-      <c r="D51" s="1">
-        <v>0.83459997177124023</v>
-      </c>
-      <c r="E51" s="1">
-        <v>0.83149999380111694</v>
-      </c>
-      <c r="F51" s="1">
-        <v>0.82450002431869507</v>
-      </c>
-      <c r="G51" s="1">
-        <v>0.83039999008178711</v>
-      </c>
-      <c r="H51" s="1">
-        <v>0.8278999924659729</v>
-      </c>
-      <c r="I51" s="1">
-        <v>0.82870000600814819</v>
-      </c>
-      <c r="J51" s="1">
-        <v>0.82770001888275146</v>
-      </c>
-      <c r="K51" s="1">
-        <v>0.82819998264312744</v>
-      </c>
-      <c r="L51" s="1">
-        <v>0.82630002498626709</v>
-      </c>
-      <c r="N51" s="2">
-        <v>0</v>
-      </c>
-      <c r="O51" s="2">
-        <f>B53</f>
-        <v>0.83060002326965332</v>
-      </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N52" s="2">
-        <v>3</v>
-      </c>
-      <c r="O52" s="2">
-        <f>C53</f>
-        <v>0.83389997482299805</v>
-      </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A53" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B53" s="2">
-        <f>B51</f>
-        <v>0.83060002326965332</v>
-      </c>
-      <c r="C53" s="2">
-        <f t="shared" ref="C53:L53" si="3">C51</f>
-        <v>0.83389997482299805</v>
-      </c>
-      <c r="D53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.83459997177124023</v>
-      </c>
-      <c r="E53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.83149999380111694</v>
-      </c>
-      <c r="F53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82450002431869507</v>
-      </c>
-      <c r="G53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.83039999008178711</v>
-      </c>
-      <c r="H53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.8278999924659729</v>
-      </c>
-      <c r="I53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82870000600814819</v>
-      </c>
-      <c r="J53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82770001888275146</v>
-      </c>
-      <c r="K53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82819998264312744</v>
-      </c>
-      <c r="L53" s="2">
-        <f t="shared" si="3"/>
-        <v>0.82630002498626709</v>
-      </c>
-      <c r="N53" s="2">
-        <v>6</v>
-      </c>
-      <c r="O53" s="2">
-        <f>D53</f>
-        <v>0.83459997177124023</v>
-      </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N54" s="2">
-        <v>9</v>
-      </c>
-      <c r="O54" s="2">
-        <f>E53</f>
-        <v>0.83149999380111694</v>
-      </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N55" s="2">
-        <v>12</v>
-      </c>
-      <c r="O55" s="2">
-        <f>F53</f>
-        <v>0.82450002431869507</v>
-      </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N56" s="2">
-        <v>15</v>
-      </c>
-      <c r="O56" s="2">
-        <f>G53</f>
-        <v>0.83039999008178711</v>
-      </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N57" s="2">
-        <v>18</v>
-      </c>
-      <c r="O57" s="2">
-        <f>H53</f>
-        <v>0.8278999924659729</v>
-      </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N58" s="2">
-        <v>21</v>
-      </c>
-      <c r="O58" s="2">
-        <f>I53</f>
-        <v>0.82870000600814819</v>
-      </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N59" s="2">
-        <v>24</v>
-      </c>
-      <c r="O59" s="2">
-        <f>J53</f>
-        <v>0.82770001888275146</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N60" s="2">
-        <v>27</v>
-      </c>
-      <c r="O60" s="2">
-        <f>K53</f>
-        <v>0.82819998264312744</v>
-      </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N61" s="2">
-        <v>30</v>
-      </c>
-      <c r="O61" s="2">
-        <f>L53</f>
-        <v>0.82630002498626709</v>
-      </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A68" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B68" s="1">
-        <v>0.97850000858306885</v>
-      </c>
-      <c r="C68" s="1">
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="D68" s="1">
-        <v>0.97500002384185791</v>
-      </c>
-      <c r="E68" s="1">
-        <v>0.96310001611709595</v>
-      </c>
-      <c r="F68" s="1">
-        <v>0.95899999141693115</v>
-      </c>
-      <c r="G68" s="1">
-        <v>0.95200002193450928</v>
-      </c>
-      <c r="H68" s="1">
-        <v>0.9496999979019165</v>
-      </c>
-      <c r="I68" s="1">
-        <v>0.9496999979019165</v>
-      </c>
-      <c r="J68" s="1">
-        <v>0.94739997386932373</v>
-      </c>
-      <c r="K68" s="1">
-        <v>0.94690001010894775</v>
-      </c>
-      <c r="L68" s="1">
-        <v>0.94290000200271606</v>
-      </c>
-      <c r="N68" s="2">
-        <v>0</v>
-      </c>
-      <c r="O68" s="2">
-        <f>B70</f>
-        <v>0.97850000858306885</v>
-      </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N69" s="2">
-        <v>3</v>
-      </c>
-      <c r="O69" s="2">
-        <f>C70</f>
-        <v>0.9725000262260437</v>
-      </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A70" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B70" s="2">
-        <f>B68</f>
-        <v>0.97850000858306885</v>
-      </c>
-      <c r="C70" s="2">
-        <f t="shared" ref="C70:L70" si="4">C68</f>
-        <v>0.9725000262260437</v>
-      </c>
-      <c r="D70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.97500002384185791</v>
-      </c>
-      <c r="E70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.96310001611709595</v>
-      </c>
-      <c r="F70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.95899999141693115</v>
-      </c>
-      <c r="G70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.95200002193450928</v>
-      </c>
-      <c r="H70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.9496999979019165</v>
-      </c>
-      <c r="I70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.9496999979019165</v>
-      </c>
-      <c r="J70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.94739997386932373</v>
-      </c>
-      <c r="K70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.94690001010894775</v>
-      </c>
-      <c r="L70" s="2">
-        <f t="shared" si="4"/>
-        <v>0.94290000200271606</v>
-      </c>
-      <c r="N70" s="2">
-        <v>6</v>
-      </c>
-      <c r="O70" s="2">
-        <f>D70</f>
-        <v>0.97500002384185791</v>
-      </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N71" s="2">
-        <v>9</v>
-      </c>
-      <c r="O71" s="2">
-        <f>E70</f>
-        <v>0.96310001611709595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N72" s="2">
-        <v>12</v>
-      </c>
-      <c r="O72" s="2">
-        <f>F70</f>
-        <v>0.95899999141693115</v>
-      </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N73" s="2">
-        <v>15</v>
-      </c>
-      <c r="O73" s="2">
-        <f>G70</f>
-        <v>0.95200002193450928</v>
-      </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N74" s="2">
-        <v>18</v>
-      </c>
-      <c r="O74" s="2">
-        <f>H70</f>
-        <v>0.9496999979019165</v>
-      </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N75" s="2">
-        <v>21</v>
-      </c>
-      <c r="O75" s="2">
-        <f>I70</f>
-        <v>0.9496999979019165</v>
-      </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N76" s="2">
-        <v>24</v>
-      </c>
-      <c r="O76" s="2">
-        <f>J70</f>
-        <v>0.94739997386932373</v>
-      </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N77" s="2">
-        <v>27</v>
-      </c>
-      <c r="O77" s="2">
-        <f>K70</f>
-        <v>0.94690001010894775</v>
-      </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N78" s="2">
-        <v>30</v>
-      </c>
-      <c r="O78" s="2">
-        <f>L70</f>
-        <v>0.94290000200271606</v>
-      </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A85" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B85" s="1">
-        <v>0.95270001888275146</v>
-      </c>
-      <c r="C85" s="1">
-        <v>0.94889998435974121</v>
-      </c>
-      <c r="D85" s="1">
-        <v>0.94220000505447388</v>
-      </c>
-      <c r="E85" s="1">
-        <v>0.93870002031326294</v>
-      </c>
-      <c r="F85" s="1">
-        <v>0.93459999561309814</v>
-      </c>
-      <c r="G85" s="1">
-        <v>0.93300002813339233</v>
-      </c>
-      <c r="H85" s="1">
-        <v>0.92790001630783081</v>
-      </c>
-      <c r="I85" s="1">
-        <v>0.92900002002716064</v>
-      </c>
-      <c r="J85" s="1">
-        <v>0.92570000886917114</v>
-      </c>
-      <c r="K85" s="1">
-        <v>0.92610001564025879</v>
-      </c>
-      <c r="L85" s="1">
-        <v>0.92339998483657837</v>
-      </c>
-      <c r="N85" s="2">
-        <v>0</v>
-      </c>
-      <c r="O85" s="2">
-        <f>B87</f>
-        <v>0.95270001888275146</v>
-      </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N86" s="2">
-        <v>3</v>
-      </c>
-      <c r="O86" s="2">
-        <f>C87</f>
-        <v>0.94889998435974121</v>
-      </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="A87" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B87" s="2">
-        <f>B85</f>
-        <v>0.95270001888275146</v>
-      </c>
-      <c r="C87" s="2">
-        <f t="shared" ref="C87:L87" si="5">C85</f>
-        <v>0.94889998435974121</v>
-      </c>
-      <c r="D87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.94220000505447388</v>
-      </c>
-      <c r="E87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93870002031326294</v>
-      </c>
-      <c r="F87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93459999561309814</v>
-      </c>
-      <c r="G87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.93300002813339233</v>
-      </c>
-      <c r="H87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92790001630783081</v>
-      </c>
-      <c r="I87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92900002002716064</v>
-      </c>
-      <c r="J87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92570000886917114</v>
-      </c>
-      <c r="K87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92610001564025879</v>
-      </c>
-      <c r="L87" s="2">
-        <f t="shared" si="5"/>
-        <v>0.92339998483657837</v>
-      </c>
-      <c r="N87" s="2">
-        <v>6</v>
-      </c>
-      <c r="O87" s="2">
-        <f>D87</f>
-        <v>0.94220000505447388</v>
-      </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N88" s="2">
-        <v>9</v>
-      </c>
-      <c r="O88" s="2">
-        <f>E87</f>
-        <v>0.93870002031326294</v>
-      </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N89" s="2">
-        <v>12</v>
-      </c>
-      <c r="O89" s="2">
-        <f>F87</f>
-        <v>0.93459999561309814</v>
-      </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N90" s="2">
-        <v>15</v>
-      </c>
-      <c r="O90" s="2">
-        <f>G87</f>
-        <v>0.93300002813339233</v>
-      </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N91" s="2">
-        <v>18</v>
-      </c>
-      <c r="O91" s="2">
-        <f>H87</f>
-        <v>0.92790001630783081</v>
-      </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N92" s="2">
-        <v>21</v>
-      </c>
-      <c r="O92" s="2">
-        <f>I87</f>
-        <v>0.92900002002716064</v>
-      </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N93" s="2">
-        <v>24</v>
-      </c>
-      <c r="O93" s="2">
-        <f>J87</f>
-        <v>0.92570000886917114</v>
-      </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N94" s="2">
-        <v>27</v>
-      </c>
-      <c r="O94" s="2">
-        <f>K87</f>
-        <v>0.92610001564025879</v>
-      </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
-      <c r="N95" s="2">
-        <v>30</v>
-      </c>
-      <c r="O95" s="2">
-        <f>L87</f>
-        <v>0.92339998483657837</v>
       </c>
     </row>
   </sheetData>
@@ -20172,10 +17558,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J21"/>
+  <dimension ref="A1:J18"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M24" sqref="M24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="K21" sqref="K21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -20230,34 +17616,34 @@
         <v>91189</v>
       </c>
       <c r="B3" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C3" s="9">
         <v>1</v>
       </c>
       <c r="D3">
-        <v>-8.9999999999999998E-4</v>
+        <v>1.0800000000000001E-2</v>
       </c>
       <c r="E3" s="1">
         <v>1E-4</v>
       </c>
       <c r="F3" s="1">
         <f t="shared" ref="F3:F8" si="0">D3-E3</f>
-        <v>-1E-3</v>
+        <v>1.0700000000000001E-2</v>
       </c>
       <c r="G3" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H3" s="1">
         <f t="shared" ref="H3:H8" si="1">F3/G3</f>
-        <v>-1.5267175572519083E-2</v>
+        <v>0.16335877862595422</v>
       </c>
       <c r="I3" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J3" s="6">
         <f t="shared" ref="J3:J8" si="2">(H3*60*50000*100)/(1000*50*0.6*I3)</f>
-        <v>-1.9240999609026983</v>
+        <v>20.587869581658875</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -20267,28 +17653,28 @@
         <v>2</v>
       </c>
       <c r="D4">
-        <v>-5.9999999999999995E-4</v>
+        <v>6.1999999999999998E-3</v>
       </c>
       <c r="E4" s="1">
         <v>1E-4</v>
       </c>
       <c r="F4" s="1">
         <f t="shared" si="0"/>
-        <v>-6.9999999999999999E-4</v>
+        <v>6.0999999999999995E-3</v>
       </c>
       <c r="G4" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H4" s="1">
         <f t="shared" si="1"/>
-        <v>-1.0687022900763359E-2</v>
+        <v>9.3129770992366398E-2</v>
       </c>
       <c r="I4" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J4" s="6">
         <f t="shared" si="2"/>
-        <v>-1.3468699726318887</v>
+        <v>11.737009761506457</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -20298,28 +17684,28 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>-4.0000000000000002E-4</v>
+        <v>9.7000000000000003E-3</v>
       </c>
       <c r="E5" s="1">
         <v>1E-4</v>
       </c>
       <c r="F5" s="1">
         <f t="shared" si="0"/>
-        <v>-5.0000000000000001E-4</v>
+        <v>9.6000000000000009E-3</v>
       </c>
       <c r="G5" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H5" s="1">
         <f t="shared" si="1"/>
-        <v>-7.6335877862595417E-3</v>
+        <v>0.14656488549618321</v>
       </c>
       <c r="I5" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J5" s="6">
         <f t="shared" si="2"/>
-        <v>-0.96204998045134915</v>
+        <v>18.471359624665904</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
@@ -20329,28 +17715,28 @@
         <v>4</v>
       </c>
       <c r="D6">
-        <v>-2.0000000000000001E-4</v>
+        <v>6.6E-3</v>
       </c>
       <c r="E6" s="1">
         <v>1E-4</v>
       </c>
       <c r="F6" s="1">
         <f t="shared" si="0"/>
-        <v>-3.0000000000000003E-4</v>
+        <v>6.4999999999999997E-3</v>
       </c>
       <c r="G6" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H6" s="1">
         <f t="shared" si="1"/>
-        <v>-4.5801526717557254E-3</v>
+        <v>9.9236641221374031E-2</v>
       </c>
       <c r="I6" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J6" s="6">
         <f t="shared" si="2"/>
-        <v>-0.57722998827080951</v>
+        <v>12.506649745867536</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
@@ -20360,28 +17746,28 @@
         <v>5</v>
       </c>
       <c r="D7">
-        <v>-1.1999999999999999E-3</v>
+        <v>8.5000000000000006E-3</v>
       </c>
       <c r="E7" s="1">
         <v>1E-4</v>
       </c>
       <c r="F7" s="1">
         <f t="shared" si="0"/>
-        <v>-1.2999999999999999E-3</v>
+        <v>8.4000000000000012E-3</v>
       </c>
       <c r="G7" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H7" s="1">
         <f t="shared" si="1"/>
-        <v>-1.9847328244274806E-2</v>
+        <v>0.12824427480916031</v>
       </c>
       <c r="I7" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J7" s="6">
         <f t="shared" si="2"/>
-        <v>-2.501329949173507</v>
+        <v>16.162439671582664</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
@@ -20391,28 +17777,28 @@
         <v>6</v>
       </c>
       <c r="D8">
-        <v>-8.9999999999999998E-4</v>
+        <v>8.9999999999999993E-3</v>
       </c>
       <c r="E8" s="1">
         <v>1E-4</v>
       </c>
       <c r="F8" s="1">
         <f t="shared" si="0"/>
-        <v>-1E-3</v>
+        <v>8.8999999999999999E-3</v>
       </c>
       <c r="G8" s="1">
         <v>6.5500000000000003E-2</v>
       </c>
       <c r="H8" s="1">
         <f t="shared" si="1"/>
-        <v>-1.5267175572519083E-2</v>
+        <v>0.13587786259541984</v>
       </c>
       <c r="I8" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J8" s="6">
         <f t="shared" si="2"/>
-        <v>-1.9240999609026983</v>
+        <v>17.124489652034011</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
@@ -20422,9 +17808,7 @@
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
-      <c r="J10" s="1">
-        <v>16.739669659853476</v>
-      </c>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="D11" s="1"/>
@@ -20466,34 +17850,34 @@
         <v>91189</v>
       </c>
       <c r="B13" s="12" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C13" s="10">
         <v>1</v>
       </c>
       <c r="D13">
-        <v>5.9999999999999995E-4</v>
+        <v>5.4999999999999997E-3</v>
       </c>
       <c r="E13" s="1">
         <v>1E-4</v>
       </c>
       <c r="F13" s="1">
-        <f t="shared" ref="F13:F18" si="3">D13-E13</f>
-        <v>4.999999999999999E-4</v>
+        <f t="shared" ref="F13:F15" si="3">D13-E13</f>
+        <v>5.3999999999999994E-3</v>
       </c>
       <c r="G13" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="H13" s="1">
-        <f t="shared" ref="H13:H18" si="4">F13/G13</f>
-        <v>8.2644628099173539E-3</v>
+        <f t="shared" ref="H13:H15" si="4">F13/G13</f>
+        <v>8.9256198347107435E-2</v>
       </c>
       <c r="I13" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" ref="J13:J18" si="5">(H13*60*50000*100)/(1000*50*0.6*I13)</f>
-        <v>1.0415582432985679</v>
+        <f t="shared" ref="J13:J15" si="5">(H13*60*50000*100)/(1000*50*0.6*I13)</f>
+        <v>11.248829027624534</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
@@ -20503,28 +17887,28 @@
         <v>2</v>
       </c>
       <c r="D14">
-        <v>4.0000000000000002E-4</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="E14" s="1">
         <v>1E-4</v>
       </c>
       <c r="F14" s="1">
         <f t="shared" si="3"/>
-        <v>3.0000000000000003E-4</v>
+        <v>5.0999999999999995E-3</v>
       </c>
       <c r="G14" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="H14" s="1">
         <f t="shared" si="4"/>
-        <v>4.9586776859504135E-3</v>
+        <v>8.4297520661157019E-2</v>
       </c>
       <c r="I14" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J14" s="6">
         <f t="shared" si="5"/>
-        <v>0.62493494597914079</v>
+        <v>10.623894081645394</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
@@ -20534,138 +17918,42 @@
         <v>3</v>
       </c>
       <c r="D15">
-        <v>5.0000000000000001E-4</v>
+        <v>5.3E-3</v>
       </c>
       <c r="E15" s="1">
         <v>1E-4</v>
       </c>
       <c r="F15" s="1">
         <f t="shared" si="3"/>
-        <v>4.0000000000000002E-4</v>
+        <v>5.1999999999999998E-3</v>
       </c>
       <c r="G15" s="1">
         <v>6.0499999999999998E-2</v>
       </c>
       <c r="H15" s="1">
         <f t="shared" si="4"/>
-        <v>6.611570247933885E-3</v>
+        <v>8.5950413223140495E-2</v>
       </c>
       <c r="I15" s="6">
         <v>79.347101932045334</v>
       </c>
       <c r="J15" s="6">
         <f t="shared" si="5"/>
-        <v>0.83324659463885453</v>
+        <v>10.832205730305109</v>
       </c>
     </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="12"/>
-      <c r="B16" s="12"/>
-      <c r="C16" s="10">
-        <v>4</v>
-      </c>
-      <c r="D16">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E16" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F16" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="G16" s="1">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="H16" s="1">
-        <f t="shared" si="4"/>
-        <v>6.611570247933885E-3</v>
-      </c>
-      <c r="I16" s="6">
-        <v>79.347101932045334</v>
-      </c>
-      <c r="J16" s="6">
-        <f t="shared" si="5"/>
-        <v>0.83324659463885453</v>
-      </c>
+    <row r="17" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D17" s="1"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="10">
-        <v>5</v>
-      </c>
-      <c r="D17" s="1">
-        <v>5.0000000000000002E-5</v>
-      </c>
-      <c r="E17" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F17" s="1">
-        <f t="shared" si="3"/>
-        <v>-5.0000000000000002E-5</v>
-      </c>
-      <c r="G17" s="1">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="H17" s="1">
-        <f t="shared" si="4"/>
-        <v>-8.2644628099173563E-4</v>
-      </c>
-      <c r="I17" s="6">
-        <v>79.347101932045334</v>
-      </c>
-      <c r="J17" s="6">
-        <f t="shared" si="5"/>
-        <v>-0.10415582432985682</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="10">
-        <v>6</v>
-      </c>
-      <c r="D18">
-        <v>5.0000000000000001E-4</v>
-      </c>
-      <c r="E18" s="1">
-        <v>1E-4</v>
-      </c>
-      <c r="F18" s="1">
-        <f t="shared" si="3"/>
-        <v>4.0000000000000002E-4</v>
-      </c>
-      <c r="G18" s="1">
-        <v>6.0499999999999998E-2</v>
-      </c>
-      <c r="H18" s="1">
-        <f t="shared" si="4"/>
-        <v>6.611570247933885E-3</v>
-      </c>
-      <c r="I18" s="6">
-        <v>79.347101932045334</v>
-      </c>
-      <c r="J18" s="6">
-        <f t="shared" si="5"/>
-        <v>0.83324659463885453</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="D21" s="1"/>
-      <c r="J21">
-        <v>11.457140676284251</v>
-      </c>
+    <row r="18" spans="4:4" x14ac:dyDescent="0.3">
+      <c r="D18" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="4">
     <mergeCell ref="A3:A8"/>
     <mergeCell ref="B3:B8"/>
-    <mergeCell ref="A13:A18"/>
-    <mergeCell ref="B13:B18"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="B13:B15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
